--- a/code/VIPER/output_font_aug/output_font_aug_linked_words.xlsx
+++ b/code/VIPER/output_font_aug/output_font_aug_linked_words.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2ց∣ꞇ</t>
+          <t>2ჹⲒ𐓧</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 giᴛlꮪ ߊ cüϱ</t>
+          <t>2 giᛚlꮪ 𑫥 c𐓶µ</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>acᴛot𐑴moⴒ𐓣i㆐𐌠ą</t>
+          <t>acᛚotꙩmoрⴑiꓲ𑫥𐐵</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>alabamą hot pocᚱⲉⲧ</t>
+          <t>alabam𐐵 hot pocᛕḝẝ</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ă𑩂áꮥkǎŋ n𑫥pel𖭐nɵ</t>
+          <t>ǝꞁ𐐺ꞩkə𑵓 𐚞𝍩pel𖭐nꝋ</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>änal</t>
+          <t>аnal</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ani𑩂𑫥ກ𐓫ⴁs</t>
+          <t>aniꞁ𝍩ⲡƍɑs</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>aໞuꮥ</t>
+          <t>aถuꞩ</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>apëṡh𐊊t</t>
+          <t>apҽɜh𐊊t</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>aⲅꭶehⲟ𑃀ę</t>
+          <t>aⲅƽeh𐓪ﺍⲉ</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>åꮥsholⲉ</t>
+          <t>ฉꞩsholꞓ</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>assтuⲡch</t>
+          <t>assⴍuᥒch</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>auꮦo еroᥣic</t>
+          <t>au⸷o ⲑroเic</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ɵutoeᴛôߙic</t>
+          <t>ⲃutoeᛚ᧐Ɩic</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bąხelân𐐬</t>
+          <t>b𐐵ɓelәnᑯ</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baნy bѳttēr</t>
+          <t>baᲮy bᴃttєr</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>băⴒy juiċе</t>
+          <t>bǝსy juiⅽⲑ</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>þa𑀭𐰾 ğaġ</t>
+          <t>ƅaᛁІ ꬶaɡ</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ba㆐∣ gⵤөvy</t>
+          <t>baꓲⲒ g𑣂૭vy</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bal𐌠 ᛕicking</t>
+          <t>bal𝍷 𐰮icking</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ხa𐢧l 𑩂꤯ckıᥒg</t>
+          <t>ხa𐡆l ꞁⅠck꡶ꬻg</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>balⵏ sack</t>
+          <t>balⅠ sack</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bᴃl𑩂 sມᴄkⲓng</t>
+          <t>b𐐨lꞁ sߎᥴk𝍷ng</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bangbṭ𐐭s</t>
+          <t>bangbｒᴏs</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ban𐓪bus</t>
+          <t>banꝗbus</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>𐐬aꮁⲉbaꮯķ</t>
+          <t>𑀱aꮁḝbaꞇᛱ</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bárely leġa𑩂</t>
+          <t>bⱥrely leɡaꞁ</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>paꮁꙩnāked</t>
+          <t>Ხaꮁ𐐪n𐐪ked</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Სᴃştarđ</t>
+          <t>h𐐨ꜱtarⅾ</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ნastarqo</t>
+          <t>Ხastarɗo</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ႱasቲⲒຖaᥝo</t>
+          <t>ᖯasꭇﺍἠaປo</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bhw</t>
+          <t>bƀw</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ⴑdsm</t>
+          <t>ödsm</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ⴒeөຖer</t>
+          <t>სe૭ἠer</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>peanèτs</t>
+          <t>Ხeanҽṝs</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>beavêɾ ꞓleavėꮁ</t>
+          <t>beavвᚨ ɕleavеꮁ</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>໐eaveτ lips</t>
+          <t>heaveғ lips</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bèaštial𐴱t𐑫</t>
+          <t>bᧉaꮥtial𐡆tꭚ</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>beꭶtiⲑl𐑦ꮦℽ</t>
+          <t>beƽtiฉlߊ⸷ϒ</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ⴉig სlăck</t>
+          <t>␢ig Სlǝck</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bߊg ხrɵãst𐑈</t>
+          <t>b𐌠g ɓrꝋɵst𐑈</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>biϥ kꪒoćkers</t>
+          <t>biԛ kήoсkers</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bⲓd t𑩂ւs</t>
+          <t>b𝍷ɋ tІ𐑚s</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>b𖩙ꜳboş</t>
+          <t>b𐢉നboꜱ</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>𐓪irdloჺk</t>
+          <t>Ⴑirdloͼk</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ꭰⲒtch</t>
+          <t>ᱠﺍtch</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>biﺎcheș</t>
+          <t>biﻠcheร</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>olaჺk coᥴķ</t>
+          <t>ħlaᴄk coϲᛱ</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ᱠ𐴱onძe aᴄti໐n</t>
+          <t>𐔒𖩙onԁe aꮯti꧆n</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ꭰloⲡdӫ on Ს𑃀onde action</t>
+          <t>ᱠloᥒdᥱ on hﺍonde action</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>blowjoᲮ</t>
+          <t>blowjoხ</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>plow j𐐬Ⴑ</t>
+          <t>ƃlow j𐐬ᖯ</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ⴑ𖭐𐐫w 𖼉ᦞur 𐡆oad</t>
+          <t>öߊᩅw Υ໐ur 𐢉oad</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ⴉlue wafᚨ𐢧ꚛ</t>
+          <t>␢lue wafẝ𐡆૭</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>blumpki໗</t>
+          <t>blumpkiɒ</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>poⵏ∣ocꀘs</t>
+          <t>ƃoⅠⲒocᛒs</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ⴑoໞ໐aģe</t>
+          <t>öoἡმaǥe</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hoຖɵŗ</t>
+          <t>ხoἠꝋᴦ</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>þo𐑴b</t>
+          <t>ƅoᩅb</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bⲟჿⴒs</t>
+          <t>b𐓪꧐სs</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>b𐑴oty ca𑩂꒐</t>
+          <t>bᩅoty caꞁ𝍩</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>𐓪τowh shᴏwe𑫫s</t>
+          <t>ⴑṝowᴨ shꙩweᴇs</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bɾⴘ𐓣etߙe ǎctߊon</t>
+          <t>bᚨນภetƖe əct𐌠on</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bùkkꞝkě</t>
+          <t>bⳙkkອkɐ</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bມll໐yke</t>
+          <t>bߎllმyke</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bullеt vibe</t>
+          <t>bullⲑt vibe</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>სulᛁsńit</t>
+          <t>Სulⵏsƀit</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hປnϥ ⴙo𑩂e</t>
+          <t>ƀษnԛ 𐔒oꞁe</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bⳙꪒg𐓣ole</t>
+          <t>bบήgⴑole</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bust𐌖</t>
+          <t>bustұ</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Სuțt</t>
+          <t>ƃuƭt</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>buttϵhêᴃᛒꜱ</t>
+          <t>buttḉhв𐑆ዘᴣ</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ნut꘡ხole</t>
+          <t>Ხut৷ካole</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>câⴊө𑃀 ୲ߋe</t>
+          <t>cә₥ḝﺍ ɾ𐓫e</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ⲥamgⲒrl</t>
+          <t>ⲥamgﺍrl</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cams𑀭ບt</t>
+          <t>camsᛁບt</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>cam𐓘hōⵤe</t>
+          <t>camẉhᦞ𑣂e</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>𐓧aṭpet ᥞuncheᴦ</t>
+          <t>ⲉaｒpet ᲅuncheꜰ</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>carpе𑀭mມꪒᴄńer</t>
+          <t>carpⲑ꘡mߎήꮯƀer</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ͼⴄocolate rosebudṡ</t>
+          <t>¢ƃocolate rosebudɜ</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ͼ𐰾al꤯š</t>
+          <t>¢𖩙alⅠꮥ</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>circlëľeŗⵍ</t>
+          <t>circlҽٳeᴦꝁ</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>сlevelaᥒ𑫙 steaⴅer</t>
+          <t>єlevelaꬻᾶ steaⴊer</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>c𑫥ᛁ𐡦</t>
+          <t>c꡶Ⲓŧ</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>clⲓtᦞris</t>
+          <t>cl𝍷t໐ris</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>c𐰾໐ver clamჿș</t>
+          <t>cІ꧆ver clamቦร</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>clu𐑈terfŭck</t>
+          <t>clu𐑈terfꭎck</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>с𐐫ck</t>
+          <t>є᪀ck</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ꞇockᵴ</t>
+          <t>𐓧ock𑛈</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>coprᦞlaჹnꓲa</t>
+          <t>copr໐laᾳnⵏa</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>copτophil𐊊à</t>
+          <t>copṝophil𐊊ⱥ</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>corⴖhⲑle</t>
+          <t>corກhⱺle</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cბ𐑴n</t>
+          <t>cσᩅn</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>còoⲡs</t>
+          <t>c᭵oᥒs</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>crèampię</t>
+          <t>crᧉampiⲉ</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>сumṡhot</t>
+          <t>єumɜhot</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cuⴍꮥhotᵴ</t>
+          <t>cuយꞩhot𑛈</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ꞇunnil𖭐ngus</t>
+          <t>𐓧unnil¡ngus</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cⴘn꘡</t>
+          <t>cʉn৷</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>𐓪ârkiᥱ</t>
+          <t>đәrki᪐</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ძatè räpė</t>
+          <t>ԁatᧉ rаpе</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>𐓟ⲑterãpë</t>
+          <t>ȯฉterɵpҽ</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dee𐓪 tńřo𐐺t</t>
+          <t>deeբ tƀғoⲑt</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>deěptⴄroaꝆ</t>
+          <t>deɐptƃroa୲</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>denძroꭰhilia</t>
+          <t>denԁroƿhilia</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>໐ild᧐</t>
+          <t>მild᭐</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>𐓟i໗qleberŕy</t>
+          <t>ȯiɒꞡleberгy</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>dino𑫥eᱠerries</t>
+          <t>dinᑫ꡶e𐔒erries</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>𐓫iᴛty pillo𐑵ɘ</t>
+          <t>ຢiᛚty pilloᴧ𐑅</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ᑯirtꛟ зanϲhᴃz</t>
+          <t>ⴋirt᥎ 𐐩anꞇh𐑆z</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>𐓫oğgıe style</t>
+          <t>ӧoꬶg꡶e style</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>đoġgieș୲yle</t>
+          <t>ⅾoɡgieรɾyle</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>đogg𐑫 ꜱț𖼉le</t>
+          <t>ⅾoggꭚ ᴣƭΥle</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dogϥyꮪ୲y𑩂e</t>
+          <t>dogԛyꮪɾyꞁe</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>𐓟ᴏg ⱁ𝆠y𐊊e</t>
+          <t>ӧꙩg ಽլy𐌠e</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ö𐐭𑀭ϲe꘡ቲ</t>
+          <t>ปσᛁꞇe৷ꭇ</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>döញ𐰾ŋation</t>
+          <t>dοꭠ𖩙𑵓ation</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>dᴏmiⴂatrix</t>
+          <t>dꙩmi𐔜atrix</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>đommes</t>
+          <t>ⅾommes</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>𐓟᧐nĸᧉy pມnch</t>
+          <t>ӧ᭐nꀘєy pߎnch</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dòuble dⲟn໐</t>
+          <t>dоuble d𐓪nᶈ</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>đouple 𐓫ꙩnөt𑫫𐐺tion</t>
+          <t>ⅾouᲮle ϱ𐐪nꝋtᴇⲑtion</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>dⴚ â𐓧tion</t>
+          <t>dᵽ әꞓtion</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>drV hນmn</t>
+          <t>drY hʋm𐚞</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>đvჿa</t>
+          <t>ⅾv𑫙a</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>eat my as𐑈</t>
+          <t>eat my asร</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ecсⲡi</t>
+          <t>ecєɦi</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ꚛ𐑚áculátꓲo໗</t>
+          <t>૭ʄ𐐺cul𐐺tⵏoɒ</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>eŕ𐓪tic</t>
+          <t>eгⲟtic</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ӫŕბtiṡm</t>
+          <t>ᥱгσtiɜm</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>esⲥoŕt</t>
+          <t>esⲥoгt</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ᴃunuϲņ</t>
+          <t>𐑆unuͼƅ</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>fѳ𐓫</t>
+          <t>fᴃƍ</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[ᴃցģ𐐭t</t>
+          <t>𑃨𐐨ჹǥᴏt</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>₸ěcal</t>
+          <t>ɟвcal</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>fꚛlⲥń</t>
+          <t>f𐐪lⅽƀ</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>fellatl᧐</t>
+          <t>fellatl᭐</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ᚨeltcn</t>
+          <t>ẝeltcb</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>fèma𑩂ᥱ 𐑅öⴗiᴦtiຖg</t>
+          <t>fᧉmaꞁ᪐ 𐑂Ꮔυiꜰtiἠg</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>feⴠgⲟm</t>
+          <t>feⴠ໔𐓪m</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>fiᥝging</t>
+          <t>fiⴝging</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>fingerbäຖg</t>
+          <t>fingerbаἠg</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>₸𑩂ກgөr𑩂n𐓪</t>
+          <t>ɟІⲡgḝrІnꝗ</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>foot ŕe୲꒐ɘh</t>
+          <t>foot 𑫫eɾ꒐𐑅h</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ⵤoo𐌉ȷob</t>
+          <t>𖺖oo🠩ϳob</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>fᴦô𐌉t꒐ng</t>
+          <t>fꜰ᧐🠩t꒐ng</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>fⴘçk</t>
+          <t>fນᴄk</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ᛚuck bⴑt𐡦ߋns</t>
+          <t>ᵮuck bᴜtŧ𐓫ns</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ᚨucᛒ𑩂n</t>
+          <t>ẝucዘІn</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>fûсᚱ𑀭arმꮪ</t>
+          <t>fມєᛕ꘡aröꮪ</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>𐠰uປge pʚꞇkɵⳟ</t>
+          <t>ŗuȯge pꬰ𐓧kꝋ𐑾</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>𐠰udgꚛpacķeŗ</t>
+          <t>ŗudg૭pacᛱeᴦ</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>futǎnarᛁ</t>
+          <t>futənarⲒ</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ganᥝᲮang</t>
+          <t>ganⴝხang</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>g𐐪ⴄg baħg</t>
+          <t>gѳ𐓣g baήg</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>gѳy ꜱeⴟ</t>
+          <t>gᴃy ᴣeｘ</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>geⴄi𝆠à𐢧s</t>
+          <t>ge𑵓iլа𐡆s</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ⴗiꞝħt coc𐌺</t>
+          <t>գiອήt cocⵍ</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ųir𑃀 on</t>
+          <t>౸irﺍ on</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ⴗ𐌠ꚍl on t𐐬𐑇</t>
+          <t>գ𑫥ⳟl on t𐐬ⴚ</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ⲟ𐌠rls 𐐬onɵ w𐑦ߊd</t>
+          <t>ꝯ𑫥rls ⴘonꝋ wߊ𑫥d</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>g𐑴atᴄx</t>
+          <t>gᩅatꮯx</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ųoatsⲉ</t>
+          <t>౸oatsꞓ</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>god ປ𐐵mň</t>
+          <t>god ȯөmด</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>gokkມⴄ</t>
+          <t>gokkߎ𐓣</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>goߊden shⲟweⵤ</t>
+          <t>go𑫥den sh𐓪we𑣂</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>o𐑴໐dpoob</t>
+          <t>ꝯᩅ꧆dpooꝑ</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>gⲟö giᴛ𖩙</t>
+          <t>g𐓪ο giᛚ𐊊</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>𐭯ore໐asm</t>
+          <t>ցoreᶈasm</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>gropē</t>
+          <t>gropє</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>groŭn sěx</t>
+          <t>groᥙ𐚞 sɐx</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>g-𐑅ϱoᥣ</t>
+          <t>g-𐑂µoเ</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ⴉaⴚd joⴉ</t>
+          <t>Ხaໞd jo␢</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>haŋgj᧐p</t>
+          <t>ha𑵓໔j᭐ƃ</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>hard čore</t>
+          <t>hard ꞓore</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ⴌaŕᲫcoⲅe</t>
+          <t>ɓaгɗcoⲅe</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>nèntåi</t>
+          <t>bᧉntвi</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>hჿmoerötiҫ</t>
+          <t>h꧐moerοti᪐</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ń𐑴nkey</t>
+          <t>ƀᩅnkey</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>hookéř</t>
+          <t>hookɇғ</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ⴙořnv</t>
+          <t>𐔒oⲅn𐊲</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hot ᥴàrl</t>
+          <t>hot ϲⱥrl</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hot ċhick</t>
+          <t>hot ⅽhick</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ⲡow tჿ kil𖩙</t>
+          <t>ɦow t꧆ kil𐊊</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ń𐑴ẅ ቲo ꜵurdër</t>
+          <t>ƀᩅԝ ꭇo យurdҽr</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>hມ𐓫e fàt</t>
+          <t>hߎƍe fⱥt</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>bumping</t>
+          <t>ñumping</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ᛁⴂcest</t>
+          <t>Ⲓ𐔜cest</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>inteřcourśē</t>
+          <t>inteғcourᵴє</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>」acꪎ o𑫫f</t>
+          <t>Ɉacꝅ oꞅf</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>jaiꓲ 𐓪alt</t>
+          <t>jai𖭐 Ⴑalt</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[ᴃ𐰾𐡆ⴒaⲓt</t>
+          <t>Ј𐐨𖩙𐢉სa𝍷t</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ĺөl꒐y donú꘡</t>
+          <t>ḽḝl𝍩y donม৷</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>jerķ ö𖺖f</t>
+          <t>jerᛱ οᵮf</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>jiჹgaᲮoō</t>
+          <t>jiᾳgaხoᦞ</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>jiⲟgeṭb𐐭o</t>
+          <t>jiꝯgeｒbᴏo</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>」izż</t>
+          <t>Ɉizᴢ</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ju𐓪ⲟṣ</t>
+          <t>juꝗꝯз</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>𐰮iņbaᚱⴗ</t>
+          <t>ꝁiпbaᛕꭒ</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>kinⲭsϯer</t>
+          <t>kin𐊋s᪨er</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>kinkꮩ</t>
+          <t>kinkꭚ</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>knobbinᥝ</t>
+          <t>knobbinⴝ</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>leaϯhęr ŕèşเraint</t>
+          <t>lea᪨hⲉr гᧉꜱﺎraint</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>léă𐑧þer șﺎrǎ𑩂ght jaċ𐰮eꮦ</t>
+          <t>lɇǝߙḫer รﻠrəІght jaⅽꞣe⸷</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>lꚛṃ໐n ⴞⲑrt𐌖</t>
+          <t>l૭ꭑჿn ᶈฉrtұ</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ᛁiꛟesex</t>
+          <t>ⵏiÿesex</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>𖭐𐐭l𑫥tâ</t>
+          <t>ߊᴏl𝍩tә</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>lóvemãkińg</t>
+          <t>l᭵vemɵki𐔗g</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>maⲕe mɵ c𐓫me</t>
+          <t>maḳe mꝋ cჿme</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>male 𐑅qບirⴕing</t>
+          <t>male 𐑂qບirꙆing</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ma𐑂t𐓶rbâte</t>
+          <t>maꭶtนrbәte</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>masเuŕbꞝting</t>
+          <t>masﺎuгbອting</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>maꮥ𑀭ùrⲟᴃtion</t>
+          <t>maꞩ꘡ⳙrⴑ૭tion</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ꜵenagê a ꘡𐑾ôᛁᵴ</t>
+          <t>ɯenagꞓ a ৷ꭉ᧐Ⲓ𑛈</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ⴊilí</t>
+          <t>₥ilſ</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>m𐴱ss𑫥𐓪ⴂary pߋꜱiเi𐐭ⲡ</t>
+          <t>m𐡆ss𝍩ⲟ𐔜ary p𐓫ᴣiﺎiᴏᥒ</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ⴊong</t>
+          <t>₥ong</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>mothéɾfučkeɪ</t>
+          <t>mothᧉᚨfuꞓkeꮁ</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>möund ō𑫫 vⲑŋuš</t>
+          <t>mоund ᦞꞅ vɘ𑵓uꮥ</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>mr hanჿs</t>
+          <t>mr hanⴋs</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>muřf diŷⲉτ</t>
+          <t>muᶉf diӱꞓṝ</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>mu꒓f𐐬iving</t>
+          <t>muⵤfᑯiving</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>naтblʚ</t>
+          <t>naⴍblꬰ</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>nawa𐑅ni</t>
+          <t>nawa𐑂bi</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ne𐓫𑫫ö</t>
+          <t>neƍᴇο</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ņeonaᤏⲒ</t>
+          <t>пeonaⱥﺍ</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ňig໐a</t>
+          <t>ดigᶈa</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>nigųèᴦ</t>
+          <t>nig౸ᧉꜰ</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ńig ⴂog</t>
+          <t>𐔗ig 𐔜og</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ⴖⵏmnhōmahia</t>
+          <t>ກ¡mքhᦞmaᴨia</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ⴙⲓⴖpߊě</t>
+          <t>ถ𝍷𐔠p𑫥ɐ</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ໞipples</t>
+          <t>ἡipples</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ņs𖺖ߍ imaჿes</t>
+          <t>пsᚨพ imaǫes</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>໗ûⴋity</t>
+          <t>ɒມᾰity</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ńu𐡦𐑧en</t>
+          <t>𐔗uŧߙen</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>nⴸmpho</t>
+          <t>nұmpho</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>nꛟmꭰhoꝏan𐴱a</t>
+          <t>n𑢤mƿhoꭃan𐡆a</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>𐐬ctoouꭶ𐑅y</t>
+          <t>𐐬ctoրuƽ𐑂y</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>oⴅorasþi</t>
+          <t>oⴊorasḫi</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>oꪒө 𐓧up tѿ𐑴 qirls</t>
+          <t>oήḝ ⲉup t᥈ᩅ ꞡirls</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ߋne guꓦ oŋe jar</t>
+          <t>𐓫ne gu𑢤 o𑵓e jar</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>oⵤ𐓫asm</t>
+          <t>o𑣂ƍasm</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>org𐌖</t>
+          <t>orgұ</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>p𐐺eᲫophilᴃ</t>
+          <t>pⲑeɗophil𐑆</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>pѳkⲓ</t>
+          <t>pᴃk𝍷</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>pʚntie𐐩</t>
+          <t>pꬰntieⱁ</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>𐐬𐐪ⴄty</t>
+          <t>բѳ𐓣ty</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ⴒēᥝobeär</t>
+          <t>рєປobeаr</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>pedo໐ņi𐡆ꙩ</t>
+          <t>pedoⴒƅi𐢉𐐪</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>໐egginჹ</t>
+          <t>ⴒegginᾳ</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>pᥱŋis</t>
+          <t>p᪐𑵓is</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>pⴌóne sèx</t>
+          <t>pɓ᭵ne sᧉx</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ⴞiece ᧐ľ зກiϯ</t>
+          <t>ᶈiece ᭐ᛚ 𐐩␢i᪨</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>pⲒkėy</t>
+          <t>pﺍkеy</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>pisɘinğ</t>
+          <t>pis𐑅inꬶ</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>piᵴs b𐊊g</t>
+          <t>pi𑛈s ꝑ𐊊g</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>pısspiᥝ</t>
+          <t>p꡶sspiⴝ</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>pla𐰟ᱠoy</t>
+          <t>plaሃ𐔒oy</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>p𐌠ᥱą𐐩ⳙřė ᴄhesﺎ</t>
+          <t>p𝍷᪐𐐵ⱁบғе ᥴhesﻠ</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>þ𐐭lê ꭶꝏò𐌺er</t>
+          <t>ҏᴏlв ƽꭃоⵍer</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>poņŷϱ𑃀aꮩ</t>
+          <t>poпỵµﺍaү</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>pooř</t>
+          <t>pooᶉ</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ჿòon</t>
+          <t>ቦ᭵on</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ⴒ𐐬ᴏnꝆanġ</t>
+          <t>р꧐ꙩn୲anɡ</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>᧙unańᐯ</t>
+          <t>ρuna𐔗γ</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>pⲟ𐓪p cňute</t>
+          <t>p𐓪𐐬p c𑫓ute</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ⴞ𐐫o᧙ⲥhute</t>
+          <t>ᶈ᪀oρⲥhute</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>p໐rno</t>
+          <t>p꧆rno</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>porⴂogrѳphy</t>
+          <t>por𐔜ogrᴃphy</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>princⲑ alběrt ხiércߊng</t>
+          <t>princɘ albɐrt ቦiɇrc𐌠ng</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>p𐌉ⴙc</t>
+          <t>p🠩𐔒c</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>pubeș</t>
+          <t>pubeร</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>pusśÿ</t>
+          <t>pusᵴƴ</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ģue𐐪f</t>
+          <t>ᑫueѳf</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ğມeⲑf</t>
+          <t>ᾳߎeɘf</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>quiᥞ</t>
+          <t>quiᲅ</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>τaցhea𑫙</t>
+          <t>ṝaჹheaᾶ</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>răo𐊊ng ⴒoŋer</t>
+          <t>rǝᑫ𐊊ng სo𑵓er</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ᴦa𐓫e</t>
+          <t>ꜰaϱe</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>𑫧abin໐</t>
+          <t>𑣂aꝑinᶈ</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ꮁaϱꓲsⲧ</t>
+          <t>ꮁaµⵏsẝ</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ŗeverşe с𐐫ꮃqᛁrl</t>
+          <t>ᴦeverꜱe є᪀ѡꞡⲒrl</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>r𑩂ᲅٳob</t>
+          <t>rІᵯɉob</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>rimmߊⴖg</t>
+          <t>rimm𐌠ກg</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ŧ𐐬𐑂v palm</t>
+          <t>ⳑ𐐬𐑂𐊲 palm</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>rosy 𐐬ålṃ ąnძ her 5 ꮪ𐰾stꚛr𐑅</t>
+          <t>rosy ϼвlꭑ 𐐵nԁ her 5 ꮪ𖩙st૭r𐑂</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>rusϯy t𑫫omhone</t>
+          <t>rus᪨y tᴇomƀone</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>sʚdi𖹪m</t>
+          <t>sꬰdiѕm</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>sǎňțჿⵤüꜵ</t>
+          <t>səดƭ꧐𑣂𐓶ɯ</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>sća꘡</t>
+          <t>sсa৷</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ꮥchlöng</t>
+          <t>ꞩchlοng</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>sciṡs𐓫ring</t>
+          <t>sciɜsჿring</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>seтen</t>
+          <t>seⴍen</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>seⴟ</t>
+          <t>se𐍇</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>sѳxϵaꜳ</t>
+          <t>sͼxḉaന</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>śexo</t>
+          <t>ᵴexo</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>seⲭv</t>
+          <t>seⲭɏ</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>sɵx𐓶ãl</t>
+          <t>sꝋxนɵl</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>𐑅exuâl𐰾ý</t>
+          <t>𐑂exuәlІу</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>se𑀋ua∣iⴕy</t>
+          <t>seхuaⲒiꙆy</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ṡh𐐺vęd oеaVᧉᴛ</t>
+          <t>ɜhⲑvⲉd ħⲑaỳϵᛚ</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>sກavëd 𐓫ບsзy</t>
+          <t>s␢avҽd ϱບs𐐩y</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>sheꝏą𐡆e</t>
+          <t>sheꭃ𐐵𐢉e</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>𐐩ⴚioar𖩙</t>
+          <t>ⱁⴖi𑀱ar𐢉</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>sŋi𑀭</t>
+          <t>sꚕi꘡</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>shitⴉlim𐓪</t>
+          <t>shit␢limբ</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>śhiꮦt𐌖</t>
+          <t>ꜱhi⸷tұ</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>𐑈ŋôta</t>
+          <t>𐑈ꚕ᧐ta</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>shrimⴞing</t>
+          <t>shrimᶈing</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>𐑂𑩃eet</t>
+          <t>ꭶ𐓜eet</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>𐑈lanteyӫ</t>
+          <t>𐑈lanteyᥱ</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>slút</t>
+          <t>slมt</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>зឤűⴕ</t>
+          <t>𐐩𑜀ꭤꙆ</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ꜱnatch</t>
+          <t>ⱁnatch</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>sⴙowpѳl𑫥inⲟ</t>
+          <t>sถowᲮᴃl꡶inꝯ</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>sod໐mizè</t>
+          <t>sod꧆mizᧉ</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>șodoꭃy</t>
+          <t>รodoឤy</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>s໐as꣎ic</t>
+          <t>sⴒas𐡦ic</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>spıç</t>
+          <t>sp꡶ᴄ</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>s𐐬lo𐐭gᧉ</t>
+          <t>sϼloᴏgϵ</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ɘplōoⲟe m໐ⲟ𐐩e</t>
+          <t>𐑅plᦞoꝯe m꧆𐓪ⱁe</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>sⴒoōgө</t>
+          <t>sрoᦞgḝ</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>s𐓫𑫧ead legᵴ</t>
+          <t>sϱﴽead leg𑛈</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>spųໞ𐰮</t>
+          <t>spꭒἡꞣ</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>stꮁap o໗</t>
+          <t>stꮁap oɒ</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>s𐌉rꞝp𐐭ŋ</t>
+          <t>s🠩rອpᴏ𑵓</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>sⲧrappaöo</t>
+          <t>sẝrappaปo</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>sւŕi໐ çlub</t>
+          <t>s𐑚гiⴒ ᴄlub</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ꮥtylę dⲟgġy</t>
+          <t>ꞩtylⲉ d𐓪gɡy</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>sⴁck</t>
+          <t>sɑck</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>suꮯk𖹪</t>
+          <t>suꞇkѕ</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ṡùiϵide ųıⳟls</t>
+          <t>ɜⳙiḉide ౸꡶𐑾ls</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>sມ𑃀ⲧᴛy wჿឤen</t>
+          <t>sߎﺍẝᛚy w꧐𑜀en</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>swāзꝆⲒ𑀋a</t>
+          <t>sw𐐪𐐩୲ﺍḵa</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>sw𐌠nğęř</t>
+          <t>sw𑫥nꬶⲉғ</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ቲaihtëd lo𐌞e</t>
+          <t>ꭇaiᴨtҽd loꛟe</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>tɵзte ឤy</t>
+          <t>tⲃ𐐩te 𑜀y</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>𐑧ea bǎgჿ𖩙ng</t>
+          <t>ߙea bəgǫ𐢉ng</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>เhrⲑęs໐me</t>
+          <t>ﺎhrɘⲉs꧆me</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ﺎñrߋà𐌉ߊnq</t>
+          <t>ﻠḥr𐓫ⱥ🠩𐌠nꞡ</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>tþⴁmbᴢᛁ𑩂𐡆a</t>
+          <t>tḫɑmbƨⲒ𖩙𐢉a</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ߙight 𐑵ņߊ꣎e</t>
+          <t>Ɩight ￦ƅ𐌠𐡦e</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ߙi𐑧tiӫs</t>
+          <t>Ɩi𐑚tiᥱs</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ߙit𑀭y</t>
+          <t>Ɩit꘡y</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>t᧐ngue ꒐n a</t>
+          <t>t᭐ngue ꒐n a</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>toolesꜱ</t>
+          <t>toրlesᴣ</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>töṡ𐑂eτ</t>
+          <t>tοɜꭶeṝ</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>tō᥈elhѳѳd</t>
+          <t>tᦞ๗elhͼᴃd</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>trannⴸ</t>
+          <t>trannҮ</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>tṭᛁⲟⲑ໐ism</t>
+          <t>tｒⲒⴑฉმism</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>tປb gir𐊊</t>
+          <t>tษb gir𐌠</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>tມⴑglrl</t>
+          <t>tߎöglrl</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>tսshỳ</t>
+          <t>tꞹshṿ</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>twa𐡦</t>
+          <t>twaŧ</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>tw𐡆nⳤ</t>
+          <t>twꞁnꝃ</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>t᥈iⴙkie</t>
+          <t>t๗iถkie</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>t𐓘ⲟ ϥⲒᛓ𑩂ş one cⴘp</t>
+          <t>tẉ𐓪 ԛﺍ𐑃ꞁꜱ one cນp</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ŭndreⱁșiⴂ𐓪</t>
+          <t>ꭎndreಽรiἡꝗ</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>u𐑇šⲭirt</t>
+          <t>uⴚꮥ𐊋irt</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>űretħrʚ p𐴱à𐑫</t>
+          <t>ꭤretħrꬰ p𖩙ⱥ𐊲</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ûropħⵏⵏⲒa</t>
+          <t>ມropħ¡Ⅰﺍa</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>vä໐iħa</t>
+          <t>vаᶈiήa</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>vᴃⴂບṣ ⴅo𐓶hd</t>
+          <t>v𐑆𐔜ບз ⴊoนᴨd</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>v꒐aųrⲑ</t>
+          <t>v꒐a౸rฉ</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>v𐊊bᴦꞝⲧor</t>
+          <t>v𐊊bṝອẝor</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ỳ𑫥olet wand</t>
+          <t>ꝟ𝍩olet wand</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>vora𑫧ephilia</t>
+          <t>voraﴽephilia</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Voŷeur</t>
+          <t>ỳoɏeur</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ꮩoyeurwӫb</t>
+          <t>ѵoyeurwᥱb</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>v𐐫vűèꚍ</t>
+          <t>v᪀𐊲ꭤᧉⳟ</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>waꪒk</t>
+          <t>waήk</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>wetb𐐺čk</t>
+          <t>wetbⲑꞓk</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>𐑵e𝆠 drᴃǎṁ</t>
+          <t>￦eլ dr𐑆ə𑜌</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>wh𐌠té ⴒowe𑫫</t>
+          <t>wh𑫥tɇ рoweᴇ</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>wņōre</t>
+          <t>wƅᦞre</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>￦oᛓldséx</t>
+          <t>𐑵o𐑃ldsɇx</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>wṫөpping mеⴙ</t>
+          <t>wɍ૭pping mⲑถ</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>wⵤinⲭߊed 𐑈tar𐠰ish</t>
+          <t>w𑣂in𐊋𑫥ed 𐑈tarŗish</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>k☓</t>
+          <t>𑀋Х</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ⴟx𑀋</t>
+          <t>𐍇xӿ</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ya𐐬𖩙</t>
+          <t>ya𐐬𐢉</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>yelⲒჿ￦ showeŕs</t>
+          <t>yel꒐꧐ẉ showeгs</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ꛟifřy</t>
+          <t>𑢤ifᶉy</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>zo𐐭ⴚh꒐lia</t>
+          <t>zoᴏᵽh꒐lia</t>
         </is>
       </c>
     </row>
